--- a/test/test_resources/testdata3/Mails2.xlsx
+++ b/test/test_resources/testdata3/Mails2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.restrepo\Desktop\JC\testing\RPAAutomatedTest\test\test_resources\testdata3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E6E0D9-0FDA-4DF7-AFDF-AF3734BEEF9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22789D59-FCAC-46A7-AC41-73DBD643DF1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>TF00000017.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">State of the mail </t>
-  </si>
-  <si>
     <t>Sent</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>To send</t>
+  </si>
+  <si>
+    <t>State of the mail</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,13 +443,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -463,10 +463,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -474,16 +474,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -491,16 +491,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
